--- a/regionseng/4/infrastructure/infrastructure.xlsx
+++ b/regionseng/4/infrastructure/infrastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -73,11 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,7 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +262,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,20 +572,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="16"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -593,8 +602,10 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>2011</v>
@@ -629,8 +640,14 @@
       <c r="L2" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -667,8 +684,14 @@
       <c r="L3" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="10">
+        <v>100</v>
+      </c>
+      <c r="N3" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -705,8 +728,14 @@
       <c r="L4" s="11">
         <v>69.251253268946371</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="M4" s="11">
+        <v>77.771673863390063</v>
+      </c>
+      <c r="N4" s="11">
+        <v>77.824995296072331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -721,8 +750,10 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>2011</v>
@@ -757,8 +788,14 @@
       <c r="L8" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -795,8 +832,14 @@
       <c r="L9" s="12">
         <v>75.70934194003577</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="12">
+        <v>78.824678230853408</v>
+      </c>
+      <c r="N9" s="12">
+        <v>79.093430511211253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -833,8 +876,14 @@
       <c r="L10" s="12">
         <v>0.43136368890346893</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="12">
+        <v>0.23108102628717758</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -871,8 +920,14 @@
       <c r="L11" s="12">
         <v>0.8700045945172401</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="12">
+        <v>0.34015433858970784</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.14505701197944987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -909,8 +964,14 @@
       <c r="L12" s="12">
         <v>22.989289776543522</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="12">
+        <v>20.604086404269705</v>
+      </c>
+      <c r="N12" s="12">
+        <v>20.761512476809305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -947,8 +1008,14 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
@@ -963,8 +1030,10 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -977,9 +1046,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
